--- a/sputnik/personal/ee/999ee.xlsx
+++ b/sputnik/personal/ee/999ee.xlsx
@@ -16,33 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>Т2</t>
-  </si>
-  <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">К оплате </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
     <t>Показания на день оплаты</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -50,9 +53,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +74,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -118,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -130,7 +127,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -139,9 +136,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,200 +444,210 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>43008</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>42994</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>422</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="5">
+        <v>4583</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>166</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="4">
+        <v>43232</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4683</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3-C2</f>
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="F3" s="6">
+        <f>D3*E3</f>
+        <v>429</v>
+      </c>
+      <c r="G3" s="9">
+        <v>429</v>
+      </c>
+      <c r="H3" s="9">
+        <v>429</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43393</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4">
+        <v>43288</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>490</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>68</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="3">
+        <v>4783</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4-C3</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="8">
         <v>4.5</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>306</v>
+      <c r="F4" s="6">
+        <f>D4*E4</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="9">
+        <v>450</v>
+      </c>
+      <c r="H4" s="9">
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>176</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>23.5</v>
+      <c r="A5" s="4">
+        <v>43309</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4883</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5-C4</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F5" s="6">
+        <f>D5*E5</f>
+        <v>450</v>
+      </c>
+      <c r="G5" s="9">
+        <v>450</v>
+      </c>
+      <c r="H5" s="9">
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>43480</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4">
+        <v>43635</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <v>934</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>1998</v>
+      <c r="C6" s="3">
+        <v>5283</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6-C5</f>
+        <v>400</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6*E6</f>
+        <v>1828</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1828</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1828</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>176</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9">
+        <f>SUM(G3,G4,G5,G6)</f>
+        <v>3157</v>
+      </c>
+      <c r="H7" s="9">
+        <f>SUM(H3,H4,H5,H6)</f>
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <f>SUM(H7,-G7)</f>
         <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43727</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1048</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>511.86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>232</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>136.08000000000001</v>
       </c>
     </row>
   </sheetData>
